--- a/backend/Ranklist.xlsx
+++ b/backend/Ranklist.xlsx
@@ -13,19 +13,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>columns</t>
+    <t>applicationid</t>
   </si>
   <si>
-    <t>column_letter</t>
+    <t>age</t>
   </si>
   <si>
-    <t>formula</t>
+    <t>parent_number</t>
   </si>
   <si>
-    <t>column_type</t>
+    <t>ads</t>
   </si>
   <si>
-    <t>9.40</t>
+    <t>1800</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -419,12 +419,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>asda</f>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
